--- a/code/java/post-tutor/src/main/resources/excel-model/tutor-model.xlsx
+++ b/code/java/post-tutor/src/main/resources/excel-model/tutor-model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>导师信息</t>
   </si>
@@ -33,29 +33,14 @@
   <si>
     <t>学院名称</t>
   </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>王振东</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>教授</t>
-  </si>
-  <si>
-    <t>信息与控制工程学院</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -99,6 +84,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -107,6 +100,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -114,14 +136,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,115 +198,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,187 +244,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,11 +438,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,45 +477,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -542,6 +494,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -550,157 +511,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -714,12 +699,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1047,7 +1026,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1059,44 +1038,34 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="19" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/code/java/post-tutor/src/main/resources/excel-model/tutor-model.xlsx
+++ b/code/java/post-tutor/src/main/resources/excel-model/tutor-model.xlsx
@@ -44,7 +44,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -69,13 +69,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color indexed="8"/>
@@ -84,9 +77,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,49 +96,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,22 +108,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -174,6 +115,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -181,9 +190,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,37 +227,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -244,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +428,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,37 +485,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +511,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -543,10 +536,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,137 +548,137 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -693,12 +686,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1023,25 +1010,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -1060,13 +1050,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="19" customHeight="1" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
